--- a/6 cluster analysis/6.1.xlsx
+++ b/6 cluster analysis/6.1.xlsx
@@ -586,8 +586,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -676,35 +676,35 @@
       </c>
       <c r="E2" s="10">
         <f t="shared" ref="E2:E48" si="0">SQRT((B2-L$2)^2+(C2-M$2)^2+(D2-N$2)^2)</f>
-        <v>5.3822671802875082</v>
+        <v>0</v>
       </c>
       <c r="F2" s="10">
         <f t="shared" ref="F2:F48" si="1">SQRT((B2-L$3)^2+(C2-M$3)^2+(D2-N$3)^2)</f>
-        <v>36.566615687160606</v>
+        <v>42.853471271298432</v>
       </c>
       <c r="G2" s="10">
         <f t="shared" ref="G2:G48" si="2">SQRT((B2-L$4)^2+(C2-M$4)^2+(D2-N$4)^2)</f>
-        <v>30.678761383080641</v>
+        <v>30.401644692351763</v>
       </c>
       <c r="H2" s="10">
         <f t="shared" ref="H2:H48" si="3">SQRT((B2-L$5)^2+(C2-M$5)^2+(D2-N$5)^2)</f>
-        <v>17.593361351270069</v>
+        <v>13.554703980537534</v>
       </c>
       <c r="I2" s="1">
-        <f t="shared" ref="I2:I48" si="4">IF(AND(E2&lt;F2,E2&lt;G2,E2&lt;H2),1,IF(AND(F2&lt;E2,F2&lt;G2,F2&lt;H2),2,IF(AND(G2&lt;E2,G2&lt;F2,G2&lt;H2),3,4)))</f>
+        <f>IF(AND(E2&lt;F2,E2&lt;G2,E2&lt;H2),1,IF(AND(F2&lt;E2,F2&lt;G2,F2&lt;H2),2,IF(AND(G2&lt;E2,G2&lt;F2,G2&lt;H2),3,4)))</f>
         <v>1</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="L2" s="8">
-        <v>46.3</v>
+        <v>50.5</v>
       </c>
       <c r="M2" s="8">
-        <v>24.12</v>
+        <v>20.9</v>
       </c>
       <c r="N2" s="8">
-        <v>29.580000000000002</v>
+        <v>28.6</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>6</v>
@@ -734,35 +734,35 @@
       </c>
       <c r="E3" s="10">
         <f t="shared" si="0"/>
-        <v>1.4720054347725757</v>
+        <v>5.6789083458002745</v>
       </c>
       <c r="F3" s="10">
         <f t="shared" si="1"/>
-        <v>31.413032849639016</v>
+        <v>37.653552289259508</v>
       </c>
       <c r="G3" s="10">
         <f t="shared" si="2"/>
-        <v>26.65918978513788</v>
+        <v>26.610712128764991</v>
       </c>
       <c r="H3" s="10">
         <f t="shared" si="3"/>
-        <v>13.121876251650757</v>
+        <v>8.4581321815162021</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I2:I48" si="4">IF(AND(E3&lt;F3,E3&lt;G3,E3&lt;H3),1,IF(AND(F3&lt;E3,F3&lt;G3,F3&lt;H3),2,IF(AND(G3&lt;E3,G3&lt;F3,G3&lt;H3),3,4)))</f>
         <v>1</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="8">
-        <v>23.45</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="M3" s="8">
-        <v>45.368749999999999</v>
+        <v>49.3</v>
       </c>
       <c r="N3" s="8">
-        <v>31.1875</v>
+        <v>32.1</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>7</v>
@@ -792,19 +792,19 @@
       </c>
       <c r="E4" s="10">
         <f t="shared" si="0"/>
-        <v>0.85720475966947007</v>
+        <v>6.2377880695002776</v>
       </c>
       <c r="F4" s="10">
         <f t="shared" si="1"/>
-        <v>30.400265341152863</v>
+        <v>36.672196552701884</v>
       </c>
       <c r="G4" s="10">
         <f t="shared" si="2"/>
-        <v>25.224599104842081</v>
+        <v>25.12866888635369</v>
       </c>
       <c r="H4" s="10">
         <f t="shared" si="3"/>
-        <v>11.76705725165116</v>
+        <v>7.3661387442811606</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="4"/>
@@ -814,13 +814,13 @@
         <v>8</v>
       </c>
       <c r="L4" s="8">
-        <v>32.24</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="M4" s="8">
-        <v>44.879999999999995</v>
+        <v>45</v>
       </c>
       <c r="N4" s="8">
-        <v>22.879999999999995</v>
+        <v>21.7</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>8</v>
@@ -850,19 +850,19 @@
       </c>
       <c r="E5" s="10">
         <f t="shared" si="0"/>
-        <v>0.39597979746446571</v>
+        <v>5.5118055118082703</v>
       </c>
       <c r="F5" s="10">
         <f t="shared" si="1"/>
-        <v>31.070462384916322</v>
+        <v>37.35157292538026</v>
       </c>
       <c r="G5" s="10">
         <f t="shared" si="2"/>
-        <v>25.657950035028126</v>
+        <v>25.517053121393154</v>
       </c>
       <c r="H5" s="10">
         <f t="shared" si="3"/>
-        <v>12.285949106786386</v>
+        <v>8.0454956342042721</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="4"/>
@@ -872,13 +872,13 @@
         <v>9</v>
       </c>
       <c r="L5" s="8">
-        <v>38.609090909090916</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="M5" s="8">
-        <v>33.827272727272721</v>
+        <v>29.7</v>
       </c>
       <c r="N5" s="8">
-        <v>27.59090909090909</v>
+        <v>30.1</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>9</v>
@@ -908,23 +908,23 @@
       </c>
       <c r="E6" s="10">
         <f t="shared" si="0"/>
-        <v>4.4417113818887382</v>
+        <v>9.7498717940288824</v>
       </c>
       <c r="F6" s="10">
         <f t="shared" si="1"/>
-        <v>26.821444457979887</v>
+        <v>33.104682448257975</v>
       </c>
       <c r="G6" s="10">
         <f t="shared" si="2"/>
-        <v>21.748618346920338</v>
+        <v>21.728782754678186</v>
       </c>
       <c r="H6" s="10">
         <f t="shared" si="3"/>
-        <v>8.2052643855249112</v>
+        <v>3.811823710509187</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.35" x14ac:dyDescent="0.5">
@@ -942,19 +942,19 @@
       </c>
       <c r="E7" s="10">
         <f t="shared" si="0"/>
-        <v>8.2101644319708953</v>
+        <v>13.554703980537534</v>
       </c>
       <c r="F7" s="10">
         <f t="shared" si="1"/>
-        <v>23.03507939670493</v>
+        <v>29.309554756085937</v>
       </c>
       <c r="G7" s="10">
         <f t="shared" si="2"/>
-        <v>18.642006329791862</v>
+        <v>18.805584277017296</v>
       </c>
       <c r="H7" s="10">
         <f t="shared" si="3"/>
-        <v>5.1175278122439982</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
@@ -1000,19 +1000,19 @@
       </c>
       <c r="E8" s="10">
         <f t="shared" si="0"/>
-        <v>17.753782695527164</v>
+        <v>22.983907413666635</v>
       </c>
       <c r="F8" s="10">
         <f t="shared" si="1"/>
-        <v>13.736489100658147</v>
+        <v>20.044450603595998</v>
       </c>
       <c r="G8" s="10">
         <f t="shared" si="2"/>
-        <v>10.089321087169342</v>
+        <v>10.792590050585632</v>
       </c>
       <c r="H8" s="10">
         <f t="shared" si="3"/>
-        <v>5.666729054915038</v>
+        <v>9.6524608261313336</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
@@ -1058,19 +1058,19 @@
       </c>
       <c r="E9" s="10">
         <f t="shared" si="0"/>
-        <v>27.09506966220976</v>
+        <v>32.404474999604609</v>
       </c>
       <c r="F9" s="10">
         <f t="shared" si="1"/>
-        <v>4.1840330797568992</v>
+        <v>10.493331215586402</v>
       </c>
       <c r="G9" s="10">
         <f t="shared" si="2"/>
-        <v>9.7270961751182519</v>
+        <v>11.29645962237727</v>
       </c>
       <c r="H9" s="10">
         <f t="shared" si="3"/>
-        <v>15.211538682556387</v>
+        <v>18.889679722006932</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
@@ -1116,19 +1116,19 @@
       </c>
       <c r="E10" s="10">
         <f t="shared" si="0"/>
-        <v>30.758816622230444</v>
+        <v>36.105678223791891</v>
       </c>
       <c r="F10" s="10">
         <f t="shared" si="1"/>
-        <v>1.2609055525692636</v>
+        <v>6.7882250993908526</v>
       </c>
       <c r="G10" s="10">
         <f t="shared" si="2"/>
-        <v>12.778826237178443</v>
+        <v>14.367324037551322</v>
       </c>
       <c r="H10" s="10">
         <f t="shared" si="3"/>
-        <v>19.119504558054192</v>
+        <v>22.553270272845133</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="4"/>
@@ -1177,19 +1177,19 @@
       </c>
       <c r="E11" s="10">
         <f t="shared" si="0"/>
-        <v>12.97670220048221</v>
+        <v>18.358921536953087</v>
       </c>
       <c r="F11" s="10">
         <f t="shared" si="1"/>
-        <v>18.56420972765876</v>
+        <v>24.749343425634546</v>
       </c>
       <c r="G11" s="10">
         <f t="shared" si="2"/>
-        <v>16.350425070927056</v>
+        <v>16.914786430812541</v>
       </c>
       <c r="H11" s="10">
         <f t="shared" si="3"/>
-        <v>5.3812806856901485</v>
+        <v>5.0259327492516199</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="4"/>
@@ -1238,19 +1238,19 @@
       </c>
       <c r="E12" s="10">
         <f t="shared" si="0"/>
-        <v>9.9619676771208194</v>
+        <v>15.226949793047854</v>
       </c>
       <c r="F12" s="10">
         <f t="shared" si="1"/>
-        <v>21.351695080543369</v>
+        <v>27.649231454056725</v>
       </c>
       <c r="G12" s="10">
         <f t="shared" si="2"/>
-        <v>16.640264420976003</v>
+        <v>16.812495353159207</v>
       </c>
       <c r="H12" s="10">
         <f t="shared" si="3"/>
-        <v>3.1517671810646677</v>
+        <v>2.0024984394500795</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="4"/>
@@ -1272,19 +1272,19 @@
       </c>
       <c r="E13" s="10">
         <f t="shared" si="0"/>
-        <v>11.123614520469504</v>
+        <v>15.951488958714798</v>
       </c>
       <c r="F13" s="10">
         <f t="shared" si="1"/>
-        <v>21.39985123341982</v>
+        <v>27.69169550605379</v>
       </c>
       <c r="G13" s="10">
         <f t="shared" si="2"/>
-        <v>14.830252863656771</v>
+        <v>14.731259280862584</v>
       </c>
       <c r="H13" s="10">
         <f t="shared" si="3"/>
-        <v>2.1273115769568163</v>
+        <v>4.8104053883222777</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="4"/>
@@ -1306,19 +1306,19 @@
       </c>
       <c r="E14" s="10">
         <f t="shared" si="0"/>
-        <v>14.100595732095858</v>
+        <v>18.961276328348784</v>
       </c>
       <c r="F14" s="10">
         <f t="shared" si="1"/>
-        <v>18.70180159269422</v>
+        <v>24.956962956257318</v>
       </c>
       <c r="G14" s="10">
         <f t="shared" si="2"/>
-        <v>11.863574503495983</v>
+        <v>11.846940533319144</v>
       </c>
       <c r="H14" s="10">
         <f t="shared" si="3"/>
-        <v>2.036485385970825</v>
+        <v>7.0837842993699338</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="4"/>
@@ -1340,19 +1340,19 @@
       </c>
       <c r="E15" s="10">
         <f t="shared" si="0"/>
-        <v>14.063313976442394</v>
+        <v>19.051509126575777</v>
       </c>
       <c r="F15" s="10">
         <f t="shared" si="1"/>
-        <v>18.214963157044814</v>
+        <v>24.497754999183083</v>
       </c>
       <c r="G15" s="10">
         <f t="shared" si="2"/>
-        <v>12.02740204699252</v>
+        <v>12.135073135337915</v>
       </c>
       <c r="H15" s="10">
         <f t="shared" si="3"/>
-        <v>1.5722016988345398</v>
+        <v>6.6730802482811509</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="4"/>
@@ -1374,23 +1374,23 @@
       </c>
       <c r="E16" s="10">
         <f t="shared" si="0"/>
-        <v>17.180710113380062</v>
+        <v>21.827963716297496</v>
       </c>
       <c r="F16" s="10">
         <f t="shared" si="1"/>
-        <v>17.337564212209859</v>
+        <v>23.408972638712704</v>
       </c>
       <c r="G16" s="10">
         <f t="shared" si="2"/>
-        <v>8.8529317177983451</v>
+        <v>8.6475430036513856</v>
       </c>
       <c r="H16" s="10">
         <f t="shared" si="3"/>
-        <v>5.3490016060773664</v>
+        <v>10.424490395218369</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.35" x14ac:dyDescent="0.5">
@@ -1408,19 +1408,19 @@
       </c>
       <c r="E17" s="10">
         <f t="shared" si="0"/>
-        <v>12.161529509070805</v>
+        <v>16.837161280928569</v>
       </c>
       <c r="F17" s="10">
         <f t="shared" si="1"/>
-        <v>21.028460067548927</v>
+        <v>27.288642326066714</v>
       </c>
       <c r="G17" s="10">
         <f t="shared" si="2"/>
-        <v>13.851512552786422</v>
+        <v>13.667845477616433</v>
       </c>
       <c r="H17" s="10">
         <f t="shared" si="3"/>
-        <v>2.4690815370018866</v>
+        <v>6.08111831820431</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="4"/>
@@ -1442,19 +1442,19 @@
       </c>
       <c r="E18" s="10">
         <f t="shared" si="0"/>
-        <v>8.6735690462461843</v>
+        <v>13.36375695678427</v>
       </c>
       <c r="F18" s="10">
         <f t="shared" si="1"/>
-        <v>23.92600327703104</v>
+        <v>30.227967182726658</v>
       </c>
       <c r="G18" s="10">
         <f t="shared" si="2"/>
-        <v>17.34751855453684</v>
+        <v>17.16537211947356</v>
       </c>
       <c r="H18" s="10">
         <f t="shared" si="3"/>
-        <v>4.5377206933557543</v>
+        <v>4.1737273509418458</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="4"/>
@@ -1476,19 +1476,19 @@
       </c>
       <c r="E19" s="10">
         <f t="shared" si="0"/>
-        <v>14.49713075060027</v>
+        <v>19.410048943781675</v>
       </c>
       <c r="F19" s="10">
         <f t="shared" si="1"/>
-        <v>18.141213653239959</v>
+        <v>24.401024568652847</v>
       </c>
       <c r="G19" s="10">
         <f t="shared" si="2"/>
-        <v>11.506537272350874</v>
+        <v>11.553787257864842</v>
       </c>
       <c r="H19" s="10">
         <f t="shared" si="3"/>
-        <v>2.1687868414476328</v>
+        <v>7.2842295405897266</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="4"/>
@@ -1510,19 +1510,19 @@
       </c>
       <c r="E20" s="10">
         <f t="shared" si="0"/>
-        <v>20.479082010676159</v>
+        <v>25.233707615013692</v>
       </c>
       <c r="F20" s="10">
         <f t="shared" si="1"/>
-        <v>14.463916579284465</v>
+        <v>20.343057783922259</v>
       </c>
       <c r="G20" s="10">
         <f t="shared" si="2"/>
-        <v>5.4737921041997915</v>
+        <v>5.5335341329027719</v>
       </c>
       <c r="H20" s="10">
         <f t="shared" si="3"/>
-        <v>8.183964364980632</v>
+        <v>13.277424449041311</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="4"/>
@@ -1544,19 +1544,19 @@
       </c>
       <c r="E21" s="10">
         <f t="shared" si="0"/>
-        <v>22.564015600065517</v>
+        <v>27.30732502461565</v>
       </c>
       <c r="F21" s="10">
         <f t="shared" si="1"/>
-        <v>13.343111811436641</v>
+        <v>18.961803711672577</v>
       </c>
       <c r="G21" s="10">
         <f t="shared" si="2"/>
-        <v>3.389454233353796</v>
+        <v>3.5902646142032482</v>
       </c>
       <c r="H21" s="10">
         <f t="shared" si="3"/>
-        <v>10.237453518598008</v>
+        <v>15.309474190840129</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="4"/>
@@ -1578,19 +1578,19 @@
       </c>
       <c r="E22" s="10">
         <f t="shared" si="0"/>
-        <v>23.871129005558156</v>
+        <v>28.685362120775121</v>
       </c>
       <c r="F22" s="10">
         <f t="shared" si="1"/>
-        <v>12.02839901285703</v>
+        <v>17.5194177985457</v>
       </c>
       <c r="G22" s="10">
         <f t="shared" si="2"/>
-        <v>2.2566346625007756</v>
+        <v>3.087069808086627</v>
       </c>
       <c r="H22" s="10">
         <f t="shared" si="3"/>
-        <v>11.435192887032409</v>
+        <v>16.441411131651687</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="4"/>
@@ -1612,19 +1612,19 @@
       </c>
       <c r="E23" s="10">
         <f t="shared" si="0"/>
-        <v>23.740614987822031</v>
+        <v>28.482626283403015</v>
       </c>
       <c r="F23" s="10">
         <f t="shared" si="1"/>
-        <v>12.77682992030887</v>
+        <v>18.205493676360437</v>
       </c>
       <c r="G23" s="10">
         <f t="shared" si="2"/>
-        <v>2.2132329294495814</v>
+        <v>2.6191601707417584</v>
       </c>
       <c r="H23" s="10">
         <f t="shared" si="3"/>
-        <v>11.39533397332595</v>
+        <v>16.453874923555244</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="4"/>
@@ -1646,19 +1646,19 @@
       </c>
       <c r="E24" s="10">
         <f t="shared" si="0"/>
-        <v>23.176902295173097</v>
+        <v>27.889783075527859</v>
       </c>
       <c r="F24" s="10">
         <f t="shared" si="1"/>
-        <v>13.303002774279948</v>
+        <v>18.797340237384649</v>
       </c>
       <c r="G24" s="10">
         <f t="shared" si="2"/>
-        <v>2.7889783075527781</v>
+        <v>2.9223278392404892</v>
       </c>
       <c r="H24" s="10">
         <f t="shared" si="3"/>
-        <v>10.88414192550546</v>
+        <v>15.964022049596402</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="4"/>
@@ -1680,19 +1680,19 @@
       </c>
       <c r="E25" s="10">
         <f t="shared" si="0"/>
-        <v>26.793446960031108</v>
+        <v>31.425149164323791</v>
       </c>
       <c r="F25" s="10">
         <f t="shared" si="1"/>
-        <v>12.902320830474649</v>
+        <v>17.533967035442949</v>
       </c>
       <c r="G25" s="10">
         <f t="shared" si="2"/>
-        <v>1.2877888025604218</v>
+        <v>1.1575836902790231</v>
       </c>
       <c r="H25" s="10">
         <f t="shared" si="3"/>
-        <v>14.556816585054214</v>
+        <v>19.637973418863773</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="4"/>
@@ -1714,19 +1714,19 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" si="0"/>
-        <v>26.404219359791721</v>
+        <v>31.002419260438373</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="1"/>
-        <v>13.320515485990022</v>
+        <v>18.028033725284626</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="2"/>
-        <v>1.4058449416631937</v>
+        <v>0.64031242374328401</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" si="3"/>
-        <v>14.225904668468852</v>
+        <v>19.320973060381821</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="4"/>
@@ -1748,19 +1748,19 @@
       </c>
       <c r="E27" s="10">
         <f t="shared" si="0"/>
-        <v>29.187031366687499</v>
+        <v>34.039535837023394</v>
       </c>
       <c r="F27" s="10">
         <f t="shared" si="1"/>
-        <v>9.9521295616817618</v>
+        <v>14.041723540933283</v>
       </c>
       <c r="G27" s="10">
         <f t="shared" si="2"/>
-        <v>3.642032399636232</v>
+        <v>4.7444704657105827</v>
       </c>
       <c r="H27" s="10">
         <f t="shared" si="3"/>
-        <v>16.689408726385846</v>
+        <v>21.597685061135603</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="4"/>
@@ -1782,19 +1782,19 @@
       </c>
       <c r="E28" s="10">
         <f t="shared" si="0"/>
-        <v>30.751598332444445</v>
+        <v>35.651928419091163</v>
       </c>
       <c r="F28" s="10">
         <f t="shared" si="1"/>
-        <v>9.2574906325904571</v>
+        <v>12.728707711311468</v>
       </c>
       <c r="G28" s="10">
         <f t="shared" si="2"/>
-        <v>5.3697672202806022</v>
+        <v>6.4249513616836023</v>
       </c>
       <c r="H28" s="10">
         <f t="shared" si="3"/>
-        <v>18.225132497336059</v>
+        <v>23.066209051337413</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="4"/>
@@ -1816,19 +1816,19 @@
       </c>
       <c r="E29" s="10">
         <f t="shared" si="0"/>
-        <v>28.928892132261129</v>
+        <v>33.564564647854439</v>
       </c>
       <c r="F29" s="10">
         <f t="shared" si="1"/>
-        <v>12.648463654234851</v>
+        <v>16.639110553151571</v>
       </c>
       <c r="G29" s="10">
         <f t="shared" si="2"/>
-        <v>3.1019993552546095</v>
+        <v>3.2031234756093907</v>
       </c>
       <c r="H29" s="10">
         <f t="shared" si="3"/>
-        <v>16.656557540227492</v>
+        <v>21.720727427966125</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="4"/>
@@ -1850,19 +1850,19 @@
       </c>
       <c r="E30" s="10">
         <f t="shared" si="0"/>
-        <v>30.393038676644359</v>
+        <v>35.067934070885904</v>
       </c>
       <c r="F30" s="10">
         <f t="shared" si="1"/>
-        <v>12.240195374768332</v>
+        <v>15.728318409798298</v>
       </c>
       <c r="G30" s="10">
         <f t="shared" si="2"/>
-        <v>4.4580713318653871</v>
+        <v>4.7518417482066857</v>
       </c>
       <c r="H30" s="10">
         <f t="shared" si="3"/>
-        <v>18.05604909970366</v>
+        <v>23.090474226399078</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="4"/>
@@ -1884,19 +1884,19 @@
       </c>
       <c r="E31" s="10">
         <f t="shared" si="0"/>
-        <v>27.697956603330866</v>
+        <v>32.344705903748761</v>
       </c>
       <c r="F31" s="10">
         <f t="shared" si="1"/>
-        <v>12.605995907206221</v>
+        <v>16.992351220475641</v>
       </c>
       <c r="G31" s="10">
         <f t="shared" si="2"/>
-        <v>1.9158288023724872</v>
+        <v>2.0542638584174102</v>
       </c>
       <c r="H31" s="10">
         <f t="shared" si="3"/>
-        <v>15.426335215527322</v>
+        <v>20.494633443904284</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="4"/>
@@ -1918,19 +1918,19 @@
       </c>
       <c r="E32" s="10">
         <f t="shared" si="0"/>
-        <v>25.827675079263329</v>
+        <v>30.401644692351763</v>
       </c>
       <c r="F32" s="10">
         <f t="shared" si="1"/>
-        <v>13.681050135589008</v>
+        <v>18.513238506539039</v>
       </c>
       <c r="G32" s="10">
         <f t="shared" si="2"/>
-        <v>1.5907231060118481</v>
+        <v>0</v>
       </c>
       <c r="H32" s="10">
         <f t="shared" si="3"/>
-        <v>13.701061670873946</v>
+        <v>18.805584277017296</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="4"/>
@@ -1952,19 +1952,19 @@
       </c>
       <c r="E33" s="10">
         <f t="shared" si="0"/>
-        <v>25.453345556134657</v>
+        <v>30.106145552029741</v>
       </c>
       <c r="F33" s="10">
         <f t="shared" si="1"/>
-        <v>13.000524328368453</v>
+        <v>17.987217683677482</v>
       </c>
       <c r="G33" s="10">
         <f t="shared" si="2"/>
-        <v>0.94148818367518072</v>
+        <v>0.86023252670426043</v>
       </c>
       <c r="H33" s="10">
         <f t="shared" si="3"/>
-        <v>13.208296290933633</v>
+        <v>18.291801442176219</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" si="4"/>
@@ -1986,19 +1986,19 @@
       </c>
       <c r="E34" s="10">
         <f t="shared" si="0"/>
-        <v>24.41673196805829</v>
+        <v>29.312454690796539</v>
       </c>
       <c r="F34" s="10">
         <f t="shared" si="1"/>
-        <v>10.9302279396406</v>
+        <v>16.441411131651687</v>
       </c>
       <c r="G34" s="10">
         <f t="shared" si="2"/>
-        <v>2.4220652344641773</v>
+        <v>3.6851051545376561</v>
       </c>
       <c r="H34" s="10">
         <f t="shared" si="3"/>
-        <v>11.906720791217042</v>
+        <v>16.822901057784293</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" si="4"/>
@@ -2020,23 +2020,23 @@
       </c>
       <c r="E35" s="10">
         <f t="shared" si="0"/>
-        <v>26.111621933537563</v>
+        <v>31.325069832324399</v>
       </c>
       <c r="F35" s="10">
         <f t="shared" si="1"/>
-        <v>6.0722634011132932</v>
+        <v>12.142487389328428</v>
       </c>
       <c r="G35" s="10">
         <f t="shared" si="2"/>
-        <v>7.0355099317675656</v>
+        <v>8.5941840799461584</v>
       </c>
       <c r="H35" s="10">
         <f t="shared" si="3"/>
-        <v>13.821557602001841</v>
+        <v>17.992498436848621</v>
       </c>
       <c r="I35" s="1">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.35" x14ac:dyDescent="0.5">
@@ -2054,23 +2054,23 @@
       </c>
       <c r="E36" s="10">
         <f t="shared" si="0"/>
-        <v>27.646280039093863</v>
+        <v>32.882518151747441</v>
       </c>
       <c r="F36" s="10">
         <f t="shared" si="1"/>
-        <v>4.5198045104296289</v>
+        <v>10.51570254429061</v>
       </c>
       <c r="G36" s="10">
         <f t="shared" si="2"/>
-        <v>7.9645715515650961</v>
+        <v>9.5540567299969457</v>
       </c>
       <c r="H36" s="10">
         <f t="shared" si="3"/>
-        <v>15.41613676402986</v>
+        <v>19.497948610046134</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.35" x14ac:dyDescent="0.5">
@@ -2088,23 +2088,23 @@
       </c>
       <c r="E37" s="10">
         <f t="shared" si="0"/>
-        <v>27.77727128427124</v>
+        <v>33.033013789238183</v>
       </c>
       <c r="F37" s="10">
         <f t="shared" si="1"/>
-        <v>4.1161125850127096</v>
+        <v>10.209799214480174</v>
       </c>
       <c r="G37" s="10">
         <f t="shared" si="2"/>
-        <v>8.4717412613936727</v>
+        <v>10.06081507632458</v>
       </c>
       <c r="H37" s="10">
         <f t="shared" si="3"/>
-        <v>15.615231491894534</v>
+        <v>19.609436503887608</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.35" x14ac:dyDescent="0.5">
@@ -2122,19 +2122,19 @@
       </c>
       <c r="E38" s="10">
         <f t="shared" si="0"/>
-        <v>28.704438681151732</v>
+        <v>33.997646977401246</v>
       </c>
       <c r="F38" s="10">
         <f t="shared" si="1"/>
-        <v>2.7653901736463871</v>
+        <v>9.0033327162778978</v>
       </c>
       <c r="G38" s="10">
         <f t="shared" si="2"/>
-        <v>9.8469487659883796</v>
+        <v>11.437657102746172</v>
       </c>
       <c r="H38" s="10">
         <f t="shared" si="3"/>
-        <v>16.702721607298297</v>
+        <v>20.506828131137198</v>
       </c>
       <c r="I38" s="1">
         <f t="shared" si="4"/>
@@ -2156,19 +2156,19 @@
       </c>
       <c r="E39" s="10">
         <f t="shared" si="0"/>
-        <v>28.565727716968805</v>
+        <v>33.914893483542009</v>
       </c>
       <c r="F39" s="10">
         <f t="shared" si="1"/>
-        <v>2.9451031921649191</v>
+        <v>8.981091247727079</v>
       </c>
       <c r="G39" s="10">
         <f t="shared" si="2"/>
-        <v>11.79518545848263</v>
+        <v>13.378340704287657</v>
       </c>
       <c r="H39" s="10">
         <f t="shared" si="3"/>
-        <v>16.993715415893135</v>
+        <v>20.361483246561384</v>
       </c>
       <c r="I39" s="1">
         <f t="shared" si="4"/>
@@ -2190,19 +2190,19 @@
       </c>
       <c r="E40" s="10">
         <f t="shared" si="0"/>
-        <v>26.02208292969646</v>
+        <v>31.358252502331823</v>
       </c>
       <c r="F40" s="10">
         <f t="shared" si="1"/>
-        <v>5.2477264422319116</v>
+        <v>11.496956118903819</v>
       </c>
       <c r="G40" s="10">
         <f t="shared" si="2"/>
-        <v>10.395883800812706</v>
+        <v>11.923086848631103</v>
       </c>
       <c r="H40" s="10">
         <f t="shared" si="3"/>
-        <v>14.374693672625462</v>
+        <v>17.812635964393365</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" si="4"/>
@@ -2224,19 +2224,19 @@
       </c>
       <c r="E41" s="10">
         <f t="shared" si="0"/>
-        <v>28.515132824519682</v>
+        <v>33.889231327960211</v>
       </c>
       <c r="F41" s="10">
         <f t="shared" si="1"/>
-        <v>4.0844072779902811</v>
+        <v>9.398936110007341</v>
       </c>
       <c r="G41" s="10">
         <f t="shared" si="2"/>
-        <v>13.353141952364622</v>
+        <v>14.924476540234165</v>
       </c>
       <c r="H41" s="10">
         <f t="shared" si="3"/>
-        <v>17.35655495770979</v>
+        <v>20.354115063052973</v>
       </c>
       <c r="I41" s="1">
         <f t="shared" si="4"/>
@@ -2258,19 +2258,19 @@
       </c>
       <c r="E42" s="10">
         <f t="shared" si="0"/>
-        <v>31.839861808745333</v>
+        <v>37.218006394754674</v>
       </c>
       <c r="F42" s="10">
         <f t="shared" si="1"/>
-        <v>3.8167240943641678</v>
+        <v>6.6513156593263529</v>
       </c>
       <c r="G42" s="10">
         <f t="shared" si="2"/>
-        <v>15.503883384494353</v>
+        <v>17.094443541689209</v>
       </c>
       <c r="H42" s="10">
         <f t="shared" si="3"/>
-        <v>20.712732140576556</v>
+        <v>23.696624232155933</v>
       </c>
       <c r="I42" s="1">
         <f t="shared" si="4"/>
@@ -2292,19 +2292,19 @@
       </c>
       <c r="E43" s="10">
         <f t="shared" si="0"/>
-        <v>35.336281637999207</v>
+        <v>40.686852913441214</v>
       </c>
       <c r="F43" s="10">
         <f t="shared" si="1"/>
-        <v>4.3607491113912999</v>
+        <v>2.3790754506740615</v>
       </c>
       <c r="G43" s="10">
         <f t="shared" si="2"/>
-        <v>15.970547892918397</v>
+        <v>17.501999885727347</v>
       </c>
       <c r="H43" s="10">
         <f t="shared" si="3"/>
-        <v>23.671751481075891</v>
+        <v>27.133190007811464</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" si="4"/>
@@ -2326,19 +2326,19 @@
       </c>
       <c r="E44" s="10">
         <f t="shared" si="0"/>
-        <v>35.38475377899357</v>
+        <v>40.71830055392784</v>
       </c>
       <c r="F44" s="10">
         <f t="shared" si="1"/>
-        <v>4.1805959877151482</v>
+        <v>2.13541565040626</v>
       </c>
       <c r="G44" s="10">
         <f t="shared" si="2"/>
-        <v>15.344132429042711</v>
+        <v>16.854079624826742</v>
       </c>
       <c r="H44" s="10">
         <f t="shared" si="3"/>
-        <v>23.569143927061624</v>
+        <v>27.175172492552829</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" si="4"/>
@@ -2360,19 +2360,19 @@
       </c>
       <c r="E45" s="10">
         <f t="shared" si="0"/>
-        <v>35.721097407554538</v>
+        <v>41.022189117598295</v>
       </c>
       <c r="F45" s="10">
         <f t="shared" si="1"/>
-        <v>4.5512232215636255</v>
+        <v>2.4124676163629637</v>
       </c>
       <c r="G45" s="10">
         <f t="shared" si="2"/>
-        <v>14.64057375924865</v>
+        <v>16.102173766296271</v>
       </c>
       <c r="H45" s="10">
         <f t="shared" si="3"/>
-        <v>23.702071255866695</v>
+        <v>27.517449009673843</v>
       </c>
       <c r="I45" s="1">
         <f t="shared" si="4"/>
@@ -2394,19 +2394,19 @@
       </c>
       <c r="E46" s="10">
         <f t="shared" si="0"/>
-        <v>36.266028180654139</v>
+        <v>41.547803792739757</v>
       </c>
       <c r="F46" s="10">
         <f t="shared" si="1"/>
-        <v>5.2490363698968601</v>
+        <v>2.6981475126464067</v>
       </c>
       <c r="G46" s="10">
         <f t="shared" si="2"/>
-        <v>14.617058527624502</v>
+        <v>16.038079685548393</v>
       </c>
       <c r="H46" s="10">
         <f t="shared" si="3"/>
-        <v>24.155763475636817</v>
+        <v>28.072228269234344</v>
       </c>
       <c r="I46" s="1">
         <f t="shared" si="4"/>
@@ -2428,19 +2428,19 @@
       </c>
       <c r="E47" s="10">
         <f t="shared" si="0"/>
-        <v>37.568028960806551</v>
+        <v>42.872601973754755</v>
       </c>
       <c r="F47" s="10">
         <f t="shared" si="1"/>
-        <v>6.3603170371059328</v>
+        <v>1.4764823060233436</v>
       </c>
       <c r="G47" s="10">
         <f t="shared" si="2"/>
-        <v>16.223267241835106</v>
+        <v>17.643128974192756</v>
       </c>
       <c r="H47" s="10">
         <f t="shared" si="3"/>
-        <v>25.556052476503851</v>
+        <v>29.362731480569035</v>
       </c>
       <c r="I47" s="1">
         <f t="shared" si="4"/>
@@ -2462,19 +2462,19 @@
       </c>
       <c r="E48" s="10">
         <f t="shared" si="0"/>
-        <v>37.518965870610025</v>
+        <v>42.853471271298432</v>
       </c>
       <c r="F48" s="10">
         <f t="shared" si="1"/>
-        <v>6.3095073351649225</v>
+        <v>0</v>
       </c>
       <c r="G48" s="10">
         <f t="shared" si="2"/>
-        <v>17.046829617263153</v>
+        <v>18.513238506539039</v>
       </c>
       <c r="H48" s="10">
         <f t="shared" si="3"/>
-        <v>25.692429022786254</v>
+        <v>29.309554756085937</v>
       </c>
       <c r="I48" s="1">
         <f t="shared" si="4"/>

--- a/6 cluster analysis/6.1.xlsx
+++ b/6 cluster analysis/6.1.xlsx
@@ -4,10 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12647"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12647" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="kmeans" sheetId="1" r:id="rId1"/>
+    <sheet name="knn" sheetId="2" r:id="rId2"/>
+    <sheet name="1999" sheetId="3" r:id="rId3"/>
+    <sheet name="2000" sheetId="4" r:id="rId4"/>
+    <sheet name="2001" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>x1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +121,146 @@
     <t>另外初始聚心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>K-means</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="SimHei"/>
+        <family val="3"/>
+      </rPr>
+      <t>可视化网站：</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.naftaliharris.com/blog/visualizing-k-means-clustering/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若k为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待测样本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蓝</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>红</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绿</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>紫</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>近朱者赤，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>近墨者黑</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -125,7 +269,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +338,137 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="SimHei"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -230,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -261,6 +536,30 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -283,32 +582,33 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>386522</xdr:colOff>
+      <xdr:colOff>526407</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>125161</xdr:rowOff>
+      <xdr:rowOff>77305</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>126721</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>19459</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>363114</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>110434</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="4" name="图片 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect l="4223" t="6364" r="-4223" b="-6364"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6184348" y="2867624"/>
-          <a:ext cx="9414286" cy="3991429"/>
+          <a:off x="6324233" y="2819768"/>
+          <a:ext cx="3701924" cy="2179246"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -584,13 +884,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:V48"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="6" width="8.9375" style="8"/>
     <col min="7" max="7" width="8.9375" style="8" customWidth="1"/>
@@ -601,7 +901,7 @@
     <col min="18" max="16384" width="8.9375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:22" ht="16">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -661,7 +961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:22" ht="15.35">
       <c r="A2" s="4">
         <v>1952</v>
       </c>
@@ -719,7 +1019,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:22" ht="15.35">
       <c r="A3" s="4">
         <v>1953</v>
       </c>
@@ -749,7 +1049,7 @@
         <v>8.4581321815162021</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I2:I48" si="4">IF(AND(E3&lt;F3,E3&lt;G3,E3&lt;H3),1,IF(AND(F3&lt;E3,F3&lt;G3,F3&lt;H3),2,IF(AND(G3&lt;E3,G3&lt;F3,G3&lt;H3),3,4)))</f>
+        <f t="shared" ref="I3:I48" si="4">IF(AND(E3&lt;F3,E3&lt;G3,E3&lt;H3),1,IF(AND(F3&lt;E3,F3&lt;G3,F3&lt;H3),2,IF(AND(G3&lt;E3,G3&lt;F3,G3&lt;H3),3,4)))</f>
         <v>1</v>
       </c>
       <c r="K3" s="9" t="s">
@@ -777,7 +1077,7 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:22" ht="15.35">
       <c r="A4" s="4">
         <v>1954</v>
       </c>
@@ -835,7 +1135,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:22" ht="15.35">
       <c r="A5" s="4">
         <v>1955</v>
       </c>
@@ -893,7 +1193,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:22" ht="15.35">
       <c r="A6" s="4">
         <v>1956</v>
       </c>
@@ -927,7 +1227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:22" ht="15.35">
       <c r="A7" s="4">
         <v>1957</v>
       </c>
@@ -985,7 +1285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:22" ht="15.35">
       <c r="A8" s="4">
         <v>1958</v>
       </c>
@@ -1043,7 +1343,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:22" ht="15.35">
       <c r="A9" s="4">
         <v>1959</v>
       </c>
@@ -1101,7 +1401,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:22" ht="15.7" customHeight="1">
       <c r="A10" s="4">
         <v>1960</v>
       </c>
@@ -1162,7 +1462,7 @@
         <v>30.133333333333333</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:22" ht="15.35">
       <c r="A11" s="4">
         <v>1961</v>
       </c>
@@ -1223,7 +1523,7 @@
         <v>30.644444444444442</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:22" ht="15.35">
       <c r="A12" s="5">
         <v>1962</v>
       </c>
@@ -1257,7 +1557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:22" ht="15.35">
       <c r="A13" s="4">
         <v>1963</v>
       </c>
@@ -1290,8 +1590,20 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="K13" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="15.35">
       <c r="A14" s="4">
         <v>1964</v>
       </c>
@@ -1325,7 +1637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:22" ht="15.35">
       <c r="A15" s="4">
         <v>1965</v>
       </c>
@@ -1359,7 +1671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:22" ht="15.35">
       <c r="A16" s="4">
         <v>1966</v>
       </c>
@@ -1393,7 +1705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:9" ht="15.35">
       <c r="A17" s="4">
         <v>1967</v>
       </c>
@@ -1427,7 +1739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:9" ht="15.35">
       <c r="A18" s="4">
         <v>1968</v>
       </c>
@@ -1461,7 +1773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:9" ht="15.35">
       <c r="A19" s="4">
         <v>1969</v>
       </c>
@@ -1495,7 +1807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:9" ht="15.35">
       <c r="A20" s="4">
         <v>1970</v>
       </c>
@@ -1529,7 +1841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:9" ht="15.35">
       <c r="A21" s="4">
         <v>1971</v>
       </c>
@@ -1563,7 +1875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:9" ht="15.35">
       <c r="A22" s="4">
         <v>1972</v>
       </c>
@@ -1597,7 +1909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:9" ht="15.35">
       <c r="A23" s="4">
         <v>1973</v>
       </c>
@@ -1631,7 +1943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:9" ht="15.35">
       <c r="A24" s="4">
         <v>1974</v>
       </c>
@@ -1665,7 +1977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:9" ht="15.35">
       <c r="A25" s="4">
         <v>1975</v>
       </c>
@@ -1699,7 +2011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:9" ht="15.35">
       <c r="A26" s="4">
         <v>1976</v>
       </c>
@@ -1733,7 +2045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:9" ht="15.35">
       <c r="A27" s="4">
         <v>1977</v>
       </c>
@@ -1767,7 +2079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:9" ht="15.35">
       <c r="A28" s="4">
         <v>1978</v>
       </c>
@@ -1801,7 +2113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:9" ht="15.35">
       <c r="A29" s="4">
         <v>1979</v>
       </c>
@@ -1835,7 +2147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:9" ht="15.35">
       <c r="A30" s="4">
         <v>1980</v>
       </c>
@@ -1869,7 +2181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:9" ht="15.35">
       <c r="A31" s="4">
         <v>1981</v>
       </c>
@@ -1903,7 +2215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:9" ht="15.35">
       <c r="A32" s="4">
         <v>1982</v>
       </c>
@@ -1937,7 +2249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:9" ht="15.35">
       <c r="A33" s="4">
         <v>1983</v>
       </c>
@@ -1971,7 +2283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:9" ht="15.35">
       <c r="A34" s="4">
         <v>1984</v>
       </c>
@@ -2005,7 +2317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:9" ht="15.35">
       <c r="A35" s="4">
         <v>1985</v>
       </c>
@@ -2039,7 +2351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:9" ht="15.35">
       <c r="A36" s="4">
         <v>1986</v>
       </c>
@@ -2073,7 +2385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:9" ht="15.35">
       <c r="A37" s="4">
         <v>1987</v>
       </c>
@@ -2107,7 +2419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:9" ht="15.35">
       <c r="A38" s="4">
         <v>1988</v>
       </c>
@@ -2141,7 +2453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:9" ht="15.35">
       <c r="A39" s="4">
         <v>1989</v>
       </c>
@@ -2175,7 +2487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:9" ht="15.35">
       <c r="A40" s="6">
         <v>1990</v>
       </c>
@@ -2209,7 +2521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:9" ht="15.35">
       <c r="A41" s="6">
         <v>1991</v>
       </c>
@@ -2243,7 +2555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9">
       <c r="A42" s="6">
         <v>1992</v>
       </c>
@@ -2277,7 +2589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9">
       <c r="A43" s="6">
         <v>1993</v>
       </c>
@@ -2311,7 +2623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9">
       <c r="A44" s="6">
         <v>1994</v>
       </c>
@@ -2345,7 +2657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9">
       <c r="A45" s="6">
         <v>1995</v>
       </c>
@@ -2379,7 +2691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9">
       <c r="A46" s="6">
         <v>1996</v>
       </c>
@@ -2413,7 +2725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9">
       <c r="A47" s="6">
         <v>1997</v>
       </c>
@@ -2447,7 +2759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9">
       <c r="A48" s="6">
         <v>1998</v>
       </c>
@@ -2479,6 +2791,16 @@
       <c r="I48" s="1">
         <f t="shared" si="4"/>
         <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="25">
+      <c r="A50" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="24.7">
+      <c r="A51" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2490,4 +2812,3657 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="6" max="6" width="8.9375" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.7">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="27">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1">
+        <v>1999</v>
+      </c>
+      <c r="J1">
+        <v>2000</v>
+      </c>
+      <c r="K1">
+        <v>2001</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.35">
+      <c r="A2" s="4">
+        <v>1952</v>
+      </c>
+      <c r="B2" s="4">
+        <v>50.5</v>
+      </c>
+      <c r="C2" s="4">
+        <v>20.9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>28.6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="4">
+        <v>42</v>
+      </c>
+      <c r="J2" s="4">
+        <v>26</v>
+      </c>
+      <c r="K2" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.35">
+      <c r="A3" s="4">
+        <v>1953</v>
+      </c>
+      <c r="B3" s="4">
+        <v>45.9</v>
+      </c>
+      <c r="C3" s="4">
+        <v>23.4</v>
+      </c>
+      <c r="D3" s="4">
+        <v>30.8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="4">
+        <v>42</v>
+      </c>
+      <c r="J3" s="4">
+        <v>57</v>
+      </c>
+      <c r="K3" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.35">
+      <c r="A4" s="4">
+        <v>1954</v>
+      </c>
+      <c r="B4" s="4">
+        <v>45.6</v>
+      </c>
+      <c r="C4" s="4">
+        <v>24.6</v>
+      </c>
+      <c r="D4" s="4">
+        <v>29.7</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="6">
+        <v>22</v>
+      </c>
+      <c r="J4" s="4">
+        <v>32</v>
+      </c>
+      <c r="K4" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.35">
+      <c r="A5" s="4">
+        <v>1955</v>
+      </c>
+      <c r="B5" s="4">
+        <v>46.3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>24.4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>29.3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f>SQRT((I$2-$B2)^2+(I$3-$C2)^2+(I$4-$D2)^2)</f>
+        <v>23.685860761222084</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:K5" si="0">SQRT((J$2-$B2)^2+(J$3-$C2)^2+(J$4-$D2)^2)</f>
+        <v>43.760941488957933</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>23.626679834458333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.35">
+      <c r="A6" s="4">
+        <v>1959</v>
+      </c>
+      <c r="B6" s="4">
+        <v>26.7</v>
+      </c>
+      <c r="C6" s="4">
+        <v>42.8</v>
+      </c>
+      <c r="D6" s="4">
+        <v>30.6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:K6" si="1">SQRT((I$2-$B3)^2+(I$3-$C3)^2+(I$4-$D3)^2)</f>
+        <v>20.943017929610814</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>39.069297408579033</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>20.664220285314418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.35">
+      <c r="A7" s="4">
+        <v>1960</v>
+      </c>
+      <c r="B7" s="5">
+        <v>23.4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>44.5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>32.1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ref="I7:K7" si="2">SQRT((I$2-$B4)^2+(I$3-$C4)^2+(I$4-$D4)^2)</f>
+        <v>19.36517492820553</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>37.936921330018336</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>20.312803843881326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.35">
+      <c r="A8" s="4">
+        <v>1988</v>
+      </c>
+      <c r="B8" s="4">
+        <v>25.7</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44.1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>30.2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:K8" si="3">SQRT((I$2-$B5)^2+(I$3-$C5)^2+(I$4-$D5)^2)</f>
+        <v>19.533048917155764</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>38.498571402066332</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>20.715694533372513</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.35">
+      <c r="A9" s="4">
+        <v>1989</v>
+      </c>
+      <c r="B9" s="4">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4">
+        <v>43</v>
+      </c>
+      <c r="D9" s="4">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9:K9" si="4">SQRT((I$2-$B6)^2+(I$3-$C6)^2+(I$4-$D6)^2)</f>
+        <v>17.569575976670581</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>14.286007139855421</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>26.280981716823288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.35">
+      <c r="A10" s="6">
+        <v>1990</v>
+      </c>
+      <c r="B10" s="4">
+        <v>27.1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>41.6</v>
+      </c>
+      <c r="D10" s="4">
+        <v>31.3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ref="I10:K10" si="5">SQRT((I$2-$B7)^2+(I$3-$C7)^2+(I$4-$D7)^2)</f>
+        <v>21.312437683193355</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="5"/>
+        <v>12.767928571228772</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>28.730123563952869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.35">
+      <c r="A11" s="6">
+        <v>1991</v>
+      </c>
+      <c r="B11" s="4">
+        <v>24.5</v>
+      </c>
+      <c r="C11" s="4">
+        <v>42.1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>33.4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ref="I11:K11" si="6">SQRT((I$2-$B8)^2+(I$3-$C8)^2+(I$4-$D8)^2)</f>
+        <v>18.36681790621337</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="6"/>
+        <v>13.028430450365077</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="6"/>
+        <v>27.45432570652574</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="6">
+        <v>1992</v>
+      </c>
+      <c r="B12" s="6">
+        <v>21.8</v>
+      </c>
+      <c r="C12" s="6">
+        <v>43.9</v>
+      </c>
+      <c r="D12" s="6">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ref="I12:K12" si="7">SQRT((I$2-$B9)^2+(I$3-$C9)^2+(I$4-$D9)^2)</f>
+        <v>19.748417658131498</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="7"/>
+        <v>14.035668847618199</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="7"/>
+        <v>27.092434368288131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6">
+        <v>1993</v>
+      </c>
+      <c r="B13" s="6">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="C13" s="6">
+        <v>47.4</v>
+      </c>
+      <c r="D13" s="6">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ref="I13:K13" si="8">SQRT((I$2-$B10)^2+(I$3-$C10)^2+(I$4-$D10)^2)</f>
+        <v>17.568722207377519</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="8"/>
+        <v>15.455096246869509</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="8"/>
+        <v>25.382277281599457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="6">
+        <v>1994</v>
+      </c>
+      <c r="B14" s="6">
+        <v>20.2</v>
+      </c>
+      <c r="C14" s="6">
+        <v>47.9</v>
+      </c>
+      <c r="D14" s="6">
+        <v>31.9</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ref="I14:K14" si="9">SQRT((I$2-$B11)^2+(I$3-$C11)^2+(I$4-$D11)^2)</f>
+        <v>20.885880398010517</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="9"/>
+        <v>15.040611689688687</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="9"/>
+        <v>26.889031220927244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="6">
+        <v>1995</v>
+      </c>
+      <c r="B15" s="6">
+        <v>20.5</v>
+      </c>
+      <c r="C15" s="6">
+        <v>48.8</v>
+      </c>
+      <c r="D15" s="6">
+        <v>30.7</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ref="I15:K15" si="10">SQRT((I$2-$B12)^2+(I$3-$C12)^2+(I$4-$D12)^2)</f>
+        <v>23.726356652465629</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="10"/>
+        <v>13.94775967673662</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="10"/>
+        <v>29.334962075993893</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="6">
+        <v>1996</v>
+      </c>
+      <c r="B16" s="6">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="C16" s="6">
+        <v>49.5</v>
+      </c>
+      <c r="D16" s="6">
+        <v>30.1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ref="I16:K16" si="11">SQRT((I$2-$B13)^2+(I$3-$C13)^2+(I$4-$D13)^2)</f>
+        <v>25.140803487557836</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="11"/>
+        <v>11.395613191048565</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="11"/>
+        <v>32.318106380170235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="6">
+        <v>1997</v>
+      </c>
+      <c r="B17" s="6">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C17" s="6">
+        <v>50</v>
+      </c>
+      <c r="D17" s="6">
+        <v>30.9</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ref="I17:K17" si="12">SQRT((I$2-$B14)^2+(I$3-$C14)^2+(I$4-$D14)^2)</f>
+        <v>24.658872642519569</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="12"/>
+        <v>10.791663449162971</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="12"/>
+        <v>32.447804240040647</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="6">
+        <v>1998</v>
+      </c>
+      <c r="B18" s="6">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="C18" s="6">
+        <v>49.3</v>
+      </c>
+      <c r="D18" s="6">
+        <v>32.1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ref="I18:K18" si="13">SQRT((I$2-$B15)^2+(I$3-$C15)^2+(I$4-$D15)^2)</f>
+        <v>24.169815886762564</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="13"/>
+        <v>9.958915603618701</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="13"/>
+        <v>32.872176684850061</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.35">
+      <c r="A19" s="4">
+        <v>1966</v>
+      </c>
+      <c r="B19" s="4">
+        <v>37.6</v>
+      </c>
+      <c r="C19" s="4">
+        <v>38</v>
+      </c>
+      <c r="D19" s="6">
+        <v>24.4</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ref="I19:K19" si="14">SQRT((I$2-$B16)^2+(I$3-$C16)^2+(I$4-$D16)^2)</f>
+        <v>24.257370014080259</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="14"/>
+        <v>9.5509161864189771</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="14"/>
+        <v>33.400898191515751</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.35">
+      <c r="A20" s="4">
+        <v>1970</v>
+      </c>
+      <c r="B20" s="4">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="C20" s="4">
+        <v>40.5</v>
+      </c>
+      <c r="D20" s="6">
+        <v>24.3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ref="I20:K20" si="15">SQRT((I$2-$B17)^2+(I$3-$C17)^2+(I$4-$D17)^2)</f>
+        <v>25.838343600161366</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="15"/>
+        <v>9.890399385262457</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="15"/>
+        <v>34.386334494970527</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.35">
+      <c r="A21" s="4">
+        <v>1971</v>
+      </c>
+      <c r="B21" s="4">
+        <v>34.1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>42.2</v>
+      </c>
+      <c r="D21" s="6">
+        <v>23.8</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ref="I21:K21" si="16">SQRT((I$2-$B18)^2+(I$3-$C18)^2+(I$4-$D18)^2)</f>
+        <v>26.511506935668518</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="16"/>
+        <v>10.679887639858391</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="16"/>
+        <v>34.206139799749394</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.35">
+      <c r="A22" s="4">
+        <v>1972</v>
+      </c>
+      <c r="B22" s="4">
+        <v>32.9</v>
+      </c>
+      <c r="C22" s="4">
+        <v>43.1</v>
+      </c>
+      <c r="D22" s="6">
+        <v>24.1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ref="I22:K22" si="17">SQRT((I$2-$B19)^2+(I$3-$C19)^2+(I$4-$D19)^2)</f>
+        <v>6.4124878167525567</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="17"/>
+        <v>23.52275494069519</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="17"/>
+        <v>22.314121089570165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.35">
+      <c r="A23" s="4">
+        <v>1973</v>
+      </c>
+      <c r="B23" s="4">
+        <v>33.4</v>
+      </c>
+      <c r="C23" s="4">
+        <v>43.1</v>
+      </c>
+      <c r="D23" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+      <c r="H23" s="1">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ref="I23:K23" si="18">SQRT((I$2-$B20)^2+(I$3-$C20)^2+(I$4-$D20)^2)</f>
+        <v>7.3334848469196396</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="18"/>
+        <v>20.400490190189061</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="18"/>
+        <v>23.735627229968035</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.35">
+      <c r="A24" s="4">
+        <v>1974</v>
+      </c>
+      <c r="B24" s="4">
+        <v>33.9</v>
+      </c>
+      <c r="C24" s="4">
+        <v>42.7</v>
+      </c>
+      <c r="D24" s="6">
+        <v>23.4</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3</v>
+      </c>
+      <c r="H24" s="1">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ref="I24:K24" si="19">SQRT((I$2-$B21)^2+(I$3-$C21)^2+(I$4-$D21)^2)</f>
+        <v>8.1049367671808508</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="19"/>
+        <v>18.758731300383829</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="19"/>
+        <v>25.021790503479167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.35">
+      <c r="A25" s="4">
+        <v>1975</v>
+      </c>
+      <c r="B25" s="4">
+        <v>32.4</v>
+      </c>
+      <c r="C25" s="4">
+        <v>45.7</v>
+      </c>
+      <c r="D25" s="6">
+        <v>21.9</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3</v>
+      </c>
+      <c r="H25" s="1">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ref="I25:K25" si="20">SQRT((I$2-$B22)^2+(I$3-$C22)^2+(I$4-$D22)^2)</f>
+        <v>9.4037226671143408</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="20"/>
+        <v>17.413500509662033</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="20"/>
+        <v>25.659890880516233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.35">
+      <c r="A26" s="4">
+        <v>1976</v>
+      </c>
+      <c r="B26" s="4">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="C26" s="4">
+        <v>45.4</v>
+      </c>
+      <c r="D26" s="4">
+        <v>21.7</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3</v>
+      </c>
+      <c r="H26" s="1">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ref="I26:K26" si="21">SQRT((I$2-$B23)^2+(I$3-$C23)^2+(I$4-$D23)^2)</f>
+        <v>8.7988635629835752</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="21"/>
+        <v>17.894691950408085</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="21"/>
+        <v>25.718087020616444</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.35">
+      <c r="A27" s="4">
+        <v>1977</v>
+      </c>
+      <c r="B27" s="4">
+        <v>29.4</v>
+      </c>
+      <c r="C27" s="4">
+        <v>47.1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>23.4</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3</v>
+      </c>
+      <c r="H27" s="1">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ref="I27:K27" si="22">SQRT((I$2-$B24)^2+(I$3-$C24)^2+(I$4-$D24)^2)</f>
+        <v>8.2498484834571375</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="22"/>
+        <v>18.462394210935916</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="22"/>
+        <v>25.433442551097958</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.35">
+      <c r="A28" s="4">
+        <v>1978</v>
+      </c>
+      <c r="B28" s="4">
+        <v>28.1</v>
+      </c>
+      <c r="C28" s="4">
+        <v>48.2</v>
+      </c>
+      <c r="D28" s="4">
+        <v>23.7</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ref="I28:K28" si="23">SQRT((I$2-$B25)^2+(I$3-$C25)^2+(I$4-$D25)^2)</f>
+        <v>10.288828893513589</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="23"/>
+        <v>16.451747627531855</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="23"/>
+        <v>28.047459778026248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.35">
+      <c r="A29" s="4">
+        <v>1979</v>
+      </c>
+      <c r="B29" s="4">
+        <v>31.2</v>
+      </c>
+      <c r="C29" s="4">
+        <v>47.4</v>
+      </c>
+      <c r="D29" s="4">
+        <v>21.4</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3</v>
+      </c>
+      <c r="H29" s="1">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ref="I29:K29" si="24">SQRT((I$2-$B26)^2+(I$3-$C26)^2+(I$4-$D26)^2)</f>
+        <v>9.8127468121826134</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="24"/>
+        <v>16.93782748760891</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="24"/>
+        <v>27.818878482066811</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.35">
+      <c r="A30" s="4">
+        <v>1980</v>
+      </c>
+      <c r="B30" s="4">
+        <v>30.1</v>
+      </c>
+      <c r="C30" s="4">
+        <v>48.5</v>
+      </c>
+      <c r="D30" s="4">
+        <v>21.4</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3</v>
+      </c>
+      <c r="H30" s="1">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ref="I30:K30" si="25">SQRT((I$2-$B27)^2+(I$3-$C27)^2+(I$4-$D27)^2)</f>
+        <v>13.664918587390122</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="25"/>
+        <v>13.547324459095234</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="25"/>
+        <v>29.167276184107426</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.35">
+      <c r="A31" s="4">
+        <v>1981</v>
+      </c>
+      <c r="B31" s="4">
+        <v>31.8</v>
+      </c>
+      <c r="C31" s="4">
+        <v>46.4</v>
+      </c>
+      <c r="D31" s="4">
+        <v>21.8</v>
+      </c>
+      <c r="E31" s="1">
+        <v>3</v>
+      </c>
+      <c r="H31" s="1">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ref="I31:K31" si="26">SQRT((I$2-$B28)^2+(I$3-$C28)^2+(I$4-$D28)^2)</f>
+        <v>15.314698821720262</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="26"/>
+        <v>12.277621919573837</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="26"/>
+        <v>30.247975138841941</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.35">
+      <c r="A32" s="4">
+        <v>1982</v>
+      </c>
+      <c r="B32" s="4">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="C32" s="4">
+        <v>45</v>
+      </c>
+      <c r="D32" s="4">
+        <v>21.7</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3</v>
+      </c>
+      <c r="H32" s="1">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ref="I32:K32" si="27">SQRT((I$2-$B29)^2+(I$3-$C29)^2+(I$4-$D29)^2)</f>
+        <v>12.089665007765932</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="27"/>
+        <v>15.217095649301809</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="27"/>
+        <v>29.579722784366997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.35">
+      <c r="A33" s="4">
+        <v>1983</v>
+      </c>
+      <c r="B33" s="4">
+        <v>33</v>
+      </c>
+      <c r="C33" s="4">
+        <v>44.6</v>
+      </c>
+      <c r="D33" s="4">
+        <v>22.4</v>
+      </c>
+      <c r="E33" s="1">
+        <v>3</v>
+      </c>
+      <c r="H33" s="1">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ref="I33:K33" si="28">SQRT((I$2-$B30)^2+(I$3-$C30)^2+(I$4-$D30)^2)</f>
+        <v>13.572766851309279</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="28"/>
+        <v>14.192251407017846</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="28"/>
+        <v>30.578096736062562</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.35">
+      <c r="A34" s="4">
+        <v>1984</v>
+      </c>
+      <c r="B34" s="4">
+        <v>32</v>
+      </c>
+      <c r="C34" s="4">
+        <v>43.3</v>
+      </c>
+      <c r="D34" s="4">
+        <v>24.7</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3</v>
+      </c>
+      <c r="H34" s="1">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ref="I34:K34" si="29">SQRT((I$2-$B31)^2+(I$3-$C31)^2+(I$4-$D31)^2)</f>
+        <v>11.110355529864918</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="29"/>
+        <v>15.81265316131357</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="29"/>
+        <v>28.653795560099887</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.35">
+      <c r="A35" s="4">
+        <v>1985</v>
+      </c>
+      <c r="B35" s="4">
+        <v>28.4</v>
+      </c>
+      <c r="C35" s="4">
+        <v>43.1</v>
+      </c>
+      <c r="D35" s="4">
+        <v>28.5</v>
+      </c>
+      <c r="E35" s="1">
+        <v>3</v>
+      </c>
+      <c r="H35" s="1">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ref="I35:K35" si="30">SQRT((I$2-$B32)^2+(I$3-$C32)^2+(I$4-$D32)^2)</f>
+        <v>9.2076055519336872</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="30"/>
+        <v>17.417806980214241</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="30"/>
+        <v>27.516903895605697</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.35">
+      <c r="A36" s="4">
+        <v>1986</v>
+      </c>
+      <c r="B36" s="4">
+        <v>27.1</v>
+      </c>
+      <c r="C36" s="4">
+        <v>44</v>
+      </c>
+      <c r="D36" s="4">
+        <v>28.9</v>
+      </c>
+      <c r="E36" s="1">
+        <v>3</v>
+      </c>
+      <c r="H36" s="1">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ref="I36:K36" si="31">SQRT((I$2-$B33)^2+(I$3-$C33)^2+(I$4-$D33)^2)</f>
+        <v>9.3765665357848338</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="31"/>
+        <v>17.173234989366446</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="31"/>
+        <v>27.068801229459719</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.35">
+      <c r="A37" s="4">
+        <v>1987</v>
+      </c>
+      <c r="B37" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="C37" s="4">
+        <v>43.9</v>
+      </c>
+      <c r="D37" s="4">
+        <v>29.3</v>
+      </c>
+      <c r="E37" s="1">
+        <v>3</v>
+      </c>
+      <c r="H37" s="1">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <f t="shared" ref="I37:K37" si="32">SQRT((I$2-$B34)^2+(I$3-$C34)^2+(I$4-$D34)^2)</f>
+        <v>10.439348638684312</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="32"/>
+        <v>16.642716124479204</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="32"/>
+        <v>25.756164310704335</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.35">
+      <c r="A38" s="4">
+        <v>1956</v>
+      </c>
+      <c r="B38" s="4">
+        <v>43.2</v>
+      </c>
+      <c r="C38" s="4">
+        <v>27.3</v>
+      </c>
+      <c r="D38" s="4">
+        <v>29.5</v>
+      </c>
+      <c r="E38" s="1">
+        <v>4</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="1">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <f t="shared" ref="I38:K38" si="33">SQRT((I$2-$B35)^2+(I$3-$C35)^2+(I$4-$D35)^2)</f>
+        <v>15.113570061372</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="33"/>
+        <v>14.533409785731632</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="33"/>
+        <v>25.931062454130185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.35">
+      <c r="A39" s="4">
+        <v>1957</v>
+      </c>
+      <c r="B39" s="4">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="C39" s="4">
+        <v>29.7</v>
+      </c>
+      <c r="D39" s="4">
+        <v>30.1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>4</v>
+      </c>
+      <c r="H39" s="1">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ref="I39:K39" si="34">SQRT((I$2-$B36)^2+(I$3-$C36)^2+(I$4-$D36)^2)</f>
+        <v>16.541463055002115</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="34"/>
+        <v>13.409697983176207</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="34"/>
+        <v>26.915051551130269</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.35">
+      <c r="A40" s="4">
+        <v>1958</v>
+      </c>
+      <c r="B40" s="4">
+        <v>34.1</v>
+      </c>
+      <c r="C40" s="4">
+        <v>37</v>
+      </c>
+      <c r="D40" s="4">
+        <v>28.9</v>
+      </c>
+      <c r="E40" s="1">
+        <v>4</v>
+      </c>
+      <c r="H40" s="1">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ref="I40:K40" si="35">SQRT((I$2-$B37)^2+(I$3-$C37)^2+(I$4-$D37)^2)</f>
+        <v>16.968794889443387</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="35"/>
+        <v>13.399253710561647</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="35"/>
+        <v>26.935849717430486</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.35">
+      <c r="A41" s="4">
+        <v>1961</v>
+      </c>
+      <c r="B41" s="4">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="C41" s="4">
+        <v>31.9</v>
+      </c>
+      <c r="D41" s="4">
+        <v>32</v>
+      </c>
+      <c r="E41" s="1">
+        <v>4</v>
+      </c>
+      <c r="H41" s="1">
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <f t="shared" ref="I41:K41" si="36">SQRT((I$2-$B38)^2+(I$3-$C38)^2+(I$4-$D38)^2)</f>
+        <v>16.546298679765211</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="36"/>
+        <v>34.411916540640398</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="36"/>
+        <v>19.333390804512284</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15.35">
+      <c r="A42" s="5">
+        <v>1962</v>
+      </c>
+      <c r="B42" s="4">
+        <v>39.4</v>
+      </c>
+      <c r="C42" s="4">
+        <v>31.3</v>
+      </c>
+      <c r="D42" s="4">
+        <v>29.3</v>
+      </c>
+      <c r="E42" s="1">
+        <v>4</v>
+      </c>
+      <c r="H42" s="1">
+        <v>4</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ref="I42:K42" si="37">SQRT((I$2-$B39)^2+(I$3-$C39)^2+(I$4-$D39)^2)</f>
+        <v>14.825316185498375</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="37"/>
+        <v>30.877014104346294</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="37"/>
+        <v>18.809306207300683</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15.35">
+      <c r="A43" s="4">
+        <v>1963</v>
+      </c>
+      <c r="B43" s="4">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="C43" s="4">
+        <v>33</v>
+      </c>
+      <c r="D43" s="4">
+        <v>26.6</v>
+      </c>
+      <c r="E43" s="1">
+        <v>4</v>
+      </c>
+      <c r="H43" s="1">
+        <v>4</v>
+      </c>
+      <c r="I43">
+        <f t="shared" ref="I43:K43" si="38">SQRT((I$2-$B40)^2+(I$3-$C40)^2+(I$4-$D40)^2)</f>
+        <v>11.619810669714028</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="38"/>
+        <v>21.799541279577422</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="38"/>
+        <v>21.114450028357357</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.35">
+      <c r="A44" s="4">
+        <v>1964</v>
+      </c>
+      <c r="B44" s="4">
+        <v>38.4</v>
+      </c>
+      <c r="C44" s="4">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="D44" s="6">
+        <v>26.2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>4</v>
+      </c>
+      <c r="H44" s="1">
+        <v>4</v>
+      </c>
+      <c r="I44">
+        <f t="shared" ref="I44:K44" si="39">SQRT((I$2-$B41)^2+(I$3-$C41)^2+(I$4-$D41)^2)</f>
+        <v>15.350895739337167</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="39"/>
+        <v>27.093357119412133</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="39"/>
+        <v>18.985520798756088</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15.35">
+      <c r="A45" s="4">
+        <v>1965</v>
+      </c>
+      <c r="B45" s="4">
+        <v>37.9</v>
+      </c>
+      <c r="C45" s="5">
+        <v>35.1</v>
+      </c>
+      <c r="D45" s="6">
+        <v>27</v>
+      </c>
+      <c r="E45" s="1">
+        <v>4</v>
+      </c>
+      <c r="H45" s="1">
+        <v>4</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ref="I45:K45" si="40">SQRT((I$2-$B42)^2+(I$3-$C42)^2+(I$4-$D42)^2)</f>
+        <v>13.211358749197601</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="40"/>
+        <v>29.109105104760605</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="40"/>
+        <v>18.977354926332595</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15.35">
+      <c r="A46" s="4">
+        <v>1967</v>
+      </c>
+      <c r="B46" s="4">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="C46" s="4">
+        <v>34</v>
+      </c>
+      <c r="D46" s="6">
+        <v>25.8</v>
+      </c>
+      <c r="E46" s="1">
+        <v>4</v>
+      </c>
+      <c r="H46" s="1">
+        <v>4</v>
+      </c>
+      <c r="I46">
+        <f t="shared" ref="I46:K46" si="41">SQRT((I$2-$B43)^2+(I$3-$C43)^2+(I$4-$D43)^2)</f>
+        <v>10.249390225764653</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="41"/>
+        <v>28.454349403913628</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="41"/>
+        <v>19.936148073286375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15.35">
+      <c r="A47" s="4">
+        <v>1968</v>
+      </c>
+      <c r="B47" s="4">
+        <v>42.2</v>
+      </c>
+      <c r="C47" s="4">
+        <v>31.2</v>
+      </c>
+      <c r="D47" s="6">
+        <v>26.7</v>
+      </c>
+      <c r="E47" s="1">
+        <v>4</v>
+      </c>
+      <c r="H47" s="1">
+        <v>4</v>
+      </c>
+      <c r="I47">
+        <f t="shared" ref="I47:K47" si="42">SQRT((I$2-$B44)^2+(I$3-$C44)^2+(I$4-$D44)^2)</f>
+        <v>8.6884981440983253</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="42"/>
+        <v>25.657162742594906</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="42"/>
+        <v>20.617710833164768</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15.35">
+      <c r="A48" s="4">
+        <v>1969</v>
+      </c>
+      <c r="B48" s="4">
+        <v>38</v>
+      </c>
+      <c r="C48" s="4">
+        <v>35.6</v>
+      </c>
+      <c r="D48" s="6">
+        <v>26.5</v>
+      </c>
+      <c r="E48" s="1">
+        <v>4</v>
+      </c>
+      <c r="H48" s="1">
+        <v>4</v>
+      </c>
+      <c r="I48">
+        <f t="shared" ref="I48:K48" si="43">SQRT((I$2-$B45)^2+(I$3-$C45)^2+(I$4-$D45)^2)</f>
+        <v>9.4562148875752605</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="43"/>
+        <v>25.420857577981117</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="43"/>
+        <v>20.381854675176154</v>
+      </c>
+    </row>
+    <row r="49" spans="8:11">
+      <c r="H49" s="1">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <f t="shared" ref="I49:K49" si="44">SQRT((I$2-$B46)^2+(I$3-$C46)^2+(I$4-$D46)^2)</f>
+        <v>9.0183146984345139</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="44"/>
+        <v>27.783628272779634</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="44"/>
+        <v>20.536065835500235</v>
+      </c>
+    </row>
+    <row r="50" spans="8:11">
+      <c r="H50" s="1">
+        <v>4</v>
+      </c>
+      <c r="I50">
+        <f t="shared" ref="I50:K50" si="45">SQRT((I$2-$B47)^2+(I$3-$C47)^2+(I$4-$D47)^2)</f>
+        <v>11.780067911519017</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="45"/>
+        <v>30.921998641743716</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="45"/>
+        <v>19.949185447030164</v>
+      </c>
+    </row>
+    <row r="51" spans="8:11">
+      <c r="H51" s="1">
+        <v>4</v>
+      </c>
+      <c r="I51">
+        <f t="shared" ref="I51:K51" si="46">SQRT((I$2-$B48)^2+(I$3-$C48)^2+(I$4-$D48)^2)</f>
+        <v>8.7869221004854694</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="46"/>
+        <v>25.143786508797753</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="46"/>
+        <v>20.736682473336955</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="15">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <v>6.4124878167525567</v>
+      </c>
+      <c r="C1">
+        <v>3.3346664001066149</v>
+      </c>
+      <c r="D1">
+        <v>22.314121089570165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="15">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>7.3334848469196396</v>
+      </c>
+      <c r="C2">
+        <v>0.8831760866327848</v>
+      </c>
+      <c r="D2">
+        <v>23.735627229968035</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="15">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>8.1049367671808508</v>
+      </c>
+      <c r="C3">
+        <v>2.6627053911388709</v>
+      </c>
+      <c r="D3">
+        <v>25.021790503479167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>8.2498484834571375</v>
+      </c>
+      <c r="C4">
+        <v>3.3256578296631814</v>
+      </c>
+      <c r="D4">
+        <v>25.433442551097958</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>8.6884981440983253</v>
+      </c>
+      <c r="C5">
+        <v>5.9236812878479563</v>
+      </c>
+      <c r="D5">
+        <v>20.617710833164768</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="15">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>8.7869221004854694</v>
+      </c>
+      <c r="C6">
+        <v>5.5326304774492208</v>
+      </c>
+      <c r="D6">
+        <v>20.736682473336955</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="15">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>8.7988635629835752</v>
+      </c>
+      <c r="C7">
+        <v>3.7973675092095065</v>
+      </c>
+      <c r="D7">
+        <v>25.718087020616444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="15">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>9.0183146984345139</v>
+      </c>
+      <c r="C8">
+        <v>8.0454956342042703</v>
+      </c>
+      <c r="D8">
+        <v>20.536065835500235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="15">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>9.2076055519336872</v>
+      </c>
+      <c r="C9">
+        <v>6.2273589907761071</v>
+      </c>
+      <c r="D9">
+        <v>27.516903895605697</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="15">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>9.3765665357848338</v>
+      </c>
+      <c r="C10">
+        <v>5.6497787567302158</v>
+      </c>
+      <c r="D10">
+        <v>27.068801229459719</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>9.4037226671143408</v>
+      </c>
+      <c r="C11">
+        <v>3.8509739027939425</v>
+      </c>
+      <c r="D11">
+        <v>25.659890880516233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>9.4562148875752605</v>
+      </c>
+      <c r="C12">
+        <v>6.0348985078458428</v>
+      </c>
+      <c r="D12">
+        <v>20.381854675176154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>9.8127468121826134</v>
+      </c>
+      <c r="C13">
+        <v>6.7</v>
+      </c>
+      <c r="D13">
+        <v>27.818878482066811</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>10.249390225764653</v>
+      </c>
+      <c r="C14">
+        <v>8.9246848683861089</v>
+      </c>
+      <c r="D14">
+        <v>19.936148073286375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>10.288828893513589</v>
+      </c>
+      <c r="C15">
+        <v>6.9899928469205204</v>
+      </c>
+      <c r="D15">
+        <v>28.047459778026248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>10.439348638684312</v>
+      </c>
+      <c r="C16">
+        <v>4.4698993277253996</v>
+      </c>
+      <c r="D16">
+        <v>25.756164310704335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>11.110355529864918</v>
+      </c>
+      <c r="C17">
+        <v>7.8383671769061678</v>
+      </c>
+      <c r="D17">
+        <v>28.653795560099887</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>11.619810669714028</v>
+      </c>
+      <c r="C18">
+        <v>5.0019996001599187</v>
+      </c>
+      <c r="D18">
+        <v>21.114450028357357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>11.780067911519017</v>
+      </c>
+      <c r="C19">
+        <v>11.496521212958294</v>
+      </c>
+      <c r="D19">
+        <v>19.949185447030164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>12.089665007765932</v>
+      </c>
+      <c r="C20">
+        <v>9.0642153548997282</v>
+      </c>
+      <c r="D20">
+        <v>29.579722784366997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>13.211358749197601</v>
+      </c>
+      <c r="C21">
+        <v>10.655515003977985</v>
+      </c>
+      <c r="D21">
+        <v>18.977354926332595</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>13.572766851309279</v>
+      </c>
+      <c r="C22">
+        <v>10.450837287031121</v>
+      </c>
+      <c r="D22">
+        <v>30.578096736062562</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>13.664918587390122</v>
+      </c>
+      <c r="C23">
+        <v>9.1831367190083828</v>
+      </c>
+      <c r="D23">
+        <v>29.167276184107426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>14.825316185498375</v>
+      </c>
+      <c r="C24">
+        <v>12.656618821786488</v>
+      </c>
+      <c r="D24">
+        <v>18.809306207300683</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>15.113570061372</v>
+      </c>
+      <c r="C25">
+        <v>8.0882631015564783</v>
+      </c>
+      <c r="D25">
+        <v>25.931062454130185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>15.314698821720262</v>
+      </c>
+      <c r="C26">
+        <v>10.795369377654477</v>
+      </c>
+      <c r="D26">
+        <v>30.247975138841941</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>15.350895739337167</v>
+      </c>
+      <c r="C27">
+        <v>10.772650555921697</v>
+      </c>
+      <c r="D27">
+        <v>18.985520798756088</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>16.541463055002115</v>
+      </c>
+      <c r="C28">
+        <v>9.6757428655375062</v>
+      </c>
+      <c r="D28">
+        <v>26.915051551130269</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>16.546298679765211</v>
+      </c>
+      <c r="C29">
+        <v>15.772761330851361</v>
+      </c>
+      <c r="D29">
+        <v>19.333390804512284</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>16.968794889443387</v>
+      </c>
+      <c r="C30">
+        <v>10.046890066085126</v>
+      </c>
+      <c r="D30">
+        <v>26.935849717430486</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="14">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>17.568722207377519</v>
+      </c>
+      <c r="C31">
+        <v>10.230347012687302</v>
+      </c>
+      <c r="D31">
+        <v>25.382277281599457</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="14">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>17.569575976670581</v>
+      </c>
+      <c r="C32">
+        <v>10.396634070698074</v>
+      </c>
+      <c r="D32">
+        <v>26.280981716823288</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="14">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>18.36681790621337</v>
+      </c>
+      <c r="C33">
+        <v>11.416654501210065</v>
+      </c>
+      <c r="D33">
+        <v>27.45432570652574</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="14">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>19.36517492820553</v>
+      </c>
+      <c r="C34">
+        <v>19.277188591700813</v>
+      </c>
+      <c r="D34">
+        <v>20.312803843881326</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="14">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>19.533048917155764</v>
+      </c>
+      <c r="C35">
+        <v>19.736767719158067</v>
+      </c>
+      <c r="D35">
+        <v>20.715694533372513</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="14">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>19.748417658131498</v>
+      </c>
+      <c r="C36">
+        <v>12.569805089976535</v>
+      </c>
+      <c r="D36">
+        <v>27.092434368288131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="14">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>20.885880398010517</v>
+      </c>
+      <c r="C37">
+        <v>13.609555466656506</v>
+      </c>
+      <c r="D37">
+        <v>26.889031220927244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="14">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>20.943017929610814</v>
+      </c>
+      <c r="C38">
+        <v>20.688402548287772</v>
+      </c>
+      <c r="D38">
+        <v>20.664220285314418</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="14">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>21.312437683193355</v>
+      </c>
+      <c r="C39">
+        <v>14.325501736413983</v>
+      </c>
+      <c r="D39">
+        <v>28.730123563952869</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="14">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>23.685860761222084</v>
+      </c>
+      <c r="C40">
+        <v>24.860008045050993</v>
+      </c>
+      <c r="D40">
+        <v>23.626679834458333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>23.726356652465629</v>
+      </c>
+      <c r="C41">
+        <v>16.611441839888553</v>
+      </c>
+      <c r="D41">
+        <v>29.334962075993893</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>24.169815886762564</v>
+      </c>
+      <c r="C42">
+        <v>17.893574265640723</v>
+      </c>
+      <c r="D42">
+        <v>32.872176684850061</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>24.257370014080259</v>
+      </c>
+      <c r="C43">
+        <v>18.149931129345919</v>
+      </c>
+      <c r="D43">
+        <v>33.400898191515751</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>24.658872642519569</v>
+      </c>
+      <c r="C44">
+        <v>18.140011025354973</v>
+      </c>
+      <c r="D44">
+        <v>32.447804240040647</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>25.140803487557836</v>
+      </c>
+      <c r="C45">
+        <v>18.494864151974731</v>
+      </c>
+      <c r="D45">
+        <v>32.318106380170235</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>25.838343600161366</v>
+      </c>
+      <c r="C46">
+        <v>19.688067452139631</v>
+      </c>
+      <c r="D46">
+        <v>34.386334494970527</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>26.511506935668518</v>
+      </c>
+      <c r="C47">
+        <v>20.145967338402986</v>
+      </c>
+      <c r="D47">
+        <v>34.206139799749394</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:D47">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D47"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="8.9375" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="22">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>24.257370014080259</v>
+      </c>
+      <c r="C1">
+        <v>9.5509161864189771</v>
+      </c>
+      <c r="D1">
+        <v>33.400898191515751</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="22">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>25.838343600161366</v>
+      </c>
+      <c r="C2">
+        <v>9.890399385262457</v>
+      </c>
+      <c r="D2">
+        <v>34.386334494970527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>24.169815886762564</v>
+      </c>
+      <c r="C3">
+        <v>9.958915603618701</v>
+      </c>
+      <c r="D3">
+        <v>32.872176684850061</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="22">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>26.511506935668518</v>
+      </c>
+      <c r="C4">
+        <v>10.679887639858391</v>
+      </c>
+      <c r="D4">
+        <v>34.206139799749394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="22">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>24.658872642519569</v>
+      </c>
+      <c r="C5">
+        <v>10.791663449162971</v>
+      </c>
+      <c r="D5">
+        <v>32.447804240040647</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="22">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>25.140803487557836</v>
+      </c>
+      <c r="C6">
+        <v>11.395613191048565</v>
+      </c>
+      <c r="D6">
+        <v>32.318106380170235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="22">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>15.314698821720262</v>
+      </c>
+      <c r="C7">
+        <v>12.277621919573837</v>
+      </c>
+      <c r="D7">
+        <v>30.247975138841941</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="22">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>21.312437683193355</v>
+      </c>
+      <c r="C8">
+        <v>12.767928571228772</v>
+      </c>
+      <c r="D8">
+        <v>28.730123563952869</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="22">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>18.36681790621337</v>
+      </c>
+      <c r="C9">
+        <v>13.028430450365077</v>
+      </c>
+      <c r="D9">
+        <v>27.45432570652574</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="22">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>16.968794889443387</v>
+      </c>
+      <c r="C10">
+        <v>13.399253710561647</v>
+      </c>
+      <c r="D10">
+        <v>26.935849717430486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>16.541463055002115</v>
+      </c>
+      <c r="C11">
+        <v>13.409697983176207</v>
+      </c>
+      <c r="D11">
+        <v>26.915051551130269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>13.664918587390122</v>
+      </c>
+      <c r="C12">
+        <v>13.547324459095234</v>
+      </c>
+      <c r="D12">
+        <v>29.167276184107426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>23.726356652465629</v>
+      </c>
+      <c r="C13">
+        <v>13.94775967673662</v>
+      </c>
+      <c r="D13">
+        <v>29.334962075993893</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>19.748417658131498</v>
+      </c>
+      <c r="C14">
+        <v>14.035668847618199</v>
+      </c>
+      <c r="D14">
+        <v>27.092434368288131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>13.572766851309279</v>
+      </c>
+      <c r="C15">
+        <v>14.192251407017846</v>
+      </c>
+      <c r="D15">
+        <v>30.578096736062562</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>17.569575976670581</v>
+      </c>
+      <c r="C16">
+        <v>14.286007139855421</v>
+      </c>
+      <c r="D16">
+        <v>26.280981716823288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>15.113570061372</v>
+      </c>
+      <c r="C17">
+        <v>14.533409785731632</v>
+      </c>
+      <c r="D17">
+        <v>25.931062454130185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>20.885880398010517</v>
+      </c>
+      <c r="C18">
+        <v>15.040611689688687</v>
+      </c>
+      <c r="D18">
+        <v>26.889031220927244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>12.089665007765932</v>
+      </c>
+      <c r="C19">
+        <v>15.217095649301809</v>
+      </c>
+      <c r="D19">
+        <v>29.579722784366997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>17.568722207377519</v>
+      </c>
+      <c r="C20">
+        <v>15.455096246869509</v>
+      </c>
+      <c r="D20">
+        <v>25.382277281599457</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>11.110355529864918</v>
+      </c>
+      <c r="C21">
+        <v>15.81265316131357</v>
+      </c>
+      <c r="D21">
+        <v>28.653795560099887</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>10.288828893513589</v>
+      </c>
+      <c r="C22">
+        <v>16.451747627531855</v>
+      </c>
+      <c r="D22">
+        <v>28.047459778026248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>10.439348638684312</v>
+      </c>
+      <c r="C23">
+        <v>16.642716124479204</v>
+      </c>
+      <c r="D23">
+        <v>25.756164310704335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>9.8127468121826134</v>
+      </c>
+      <c r="C24">
+        <v>16.93782748760891</v>
+      </c>
+      <c r="D24">
+        <v>27.818878482066811</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>9.3765665357848338</v>
+      </c>
+      <c r="C25">
+        <v>17.173234989366446</v>
+      </c>
+      <c r="D25">
+        <v>27.068801229459719</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>9.4037226671143408</v>
+      </c>
+      <c r="C26">
+        <v>17.413500509662033</v>
+      </c>
+      <c r="D26">
+        <v>25.659890880516233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>9.2076055519336872</v>
+      </c>
+      <c r="C27">
+        <v>17.417806980214241</v>
+      </c>
+      <c r="D27">
+        <v>27.516903895605697</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>8.7988635629835752</v>
+      </c>
+      <c r="C28">
+        <v>17.894691950408085</v>
+      </c>
+      <c r="D28">
+        <v>25.718087020616444</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>8.2498484834571375</v>
+      </c>
+      <c r="C29">
+        <v>18.462394210935916</v>
+      </c>
+      <c r="D29">
+        <v>25.433442551097958</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>8.1049367671808508</v>
+      </c>
+      <c r="C30">
+        <v>18.758731300383829</v>
+      </c>
+      <c r="D30">
+        <v>25.021790503479167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>7.3334848469196396</v>
+      </c>
+      <c r="C31">
+        <v>20.400490190189061</v>
+      </c>
+      <c r="D31">
+        <v>23.735627229968035</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>11.619810669714028</v>
+      </c>
+      <c r="C32">
+        <v>21.799541279577422</v>
+      </c>
+      <c r="D32">
+        <v>21.114450028357357</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>6.4124878167525567</v>
+      </c>
+      <c r="C33">
+        <v>23.52275494069519</v>
+      </c>
+      <c r="D33">
+        <v>22.314121089570165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>8.7869221004854694</v>
+      </c>
+      <c r="C34">
+        <v>25.143786508797753</v>
+      </c>
+      <c r="D34">
+        <v>20.736682473336955</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>9.4562148875752605</v>
+      </c>
+      <c r="C35">
+        <v>25.420857577981117</v>
+      </c>
+      <c r="D35">
+        <v>20.381854675176154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>8.6884981440983253</v>
+      </c>
+      <c r="C36">
+        <v>25.657162742594906</v>
+      </c>
+      <c r="D36">
+        <v>20.617710833164768</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>15.350895739337167</v>
+      </c>
+      <c r="C37">
+        <v>27.093357119412133</v>
+      </c>
+      <c r="D37">
+        <v>18.985520798756088</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>9.0183146984345139</v>
+      </c>
+      <c r="C38">
+        <v>27.783628272779634</v>
+      </c>
+      <c r="D38">
+        <v>20.536065835500235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>10.249390225764653</v>
+      </c>
+      <c r="C39">
+        <v>28.454349403913628</v>
+      </c>
+      <c r="D39">
+        <v>19.936148073286375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>13.211358749197601</v>
+      </c>
+      <c r="C40">
+        <v>29.109105104760605</v>
+      </c>
+      <c r="D40">
+        <v>18.977354926332595</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>14.825316185498375</v>
+      </c>
+      <c r="C41">
+        <v>30.877014104346294</v>
+      </c>
+      <c r="D41">
+        <v>18.809306207300683</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>11.780067911519017</v>
+      </c>
+      <c r="C42">
+        <v>30.921998641743716</v>
+      </c>
+      <c r="D42">
+        <v>19.949185447030164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>16.546298679765211</v>
+      </c>
+      <c r="C43">
+        <v>34.411916540640398</v>
+      </c>
+      <c r="D43">
+        <v>19.333390804512284</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>19.36517492820553</v>
+      </c>
+      <c r="C44">
+        <v>37.936921330018336</v>
+      </c>
+      <c r="D44">
+        <v>20.312803843881326</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>19.533048917155764</v>
+      </c>
+      <c r="C45">
+        <v>38.498571402066332</v>
+      </c>
+      <c r="D45">
+        <v>20.715694533372513</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>20.943017929610814</v>
+      </c>
+      <c r="C46">
+        <v>39.069297408579033</v>
+      </c>
+      <c r="D46">
+        <v>20.664220285314418</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>23.685860761222084</v>
+      </c>
+      <c r="C47">
+        <v>43.760941488957933</v>
+      </c>
+      <c r="D47">
+        <v>23.626679834458333</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:D47">
+    <sortCondition ref="C1"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="8.9375" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="16">
+        <v>4</v>
+      </c>
+      <c r="B1">
+        <v>14.825316185498375</v>
+      </c>
+      <c r="C1">
+        <v>12.656618821786488</v>
+      </c>
+      <c r="D1">
+        <v>18.809306207300683</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="16">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>13.211358749197601</v>
+      </c>
+      <c r="C2">
+        <v>10.655515003977985</v>
+      </c>
+      <c r="D2">
+        <v>18.977354926332595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="16">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>15.350895739337167</v>
+      </c>
+      <c r="C3">
+        <v>10.772650555921697</v>
+      </c>
+      <c r="D3">
+        <v>18.985520798756088</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="16">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>16.546298679765211</v>
+      </c>
+      <c r="C4">
+        <v>15.772761330851361</v>
+      </c>
+      <c r="D4">
+        <v>19.333390804512284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>10.249390225764653</v>
+      </c>
+      <c r="C5">
+        <v>8.9246848683861089</v>
+      </c>
+      <c r="D5">
+        <v>19.936148073286375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="16">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>11.780067911519017</v>
+      </c>
+      <c r="C6">
+        <v>11.496521212958294</v>
+      </c>
+      <c r="D6">
+        <v>19.949185447030164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="16">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>19.36517492820553</v>
+      </c>
+      <c r="C7">
+        <v>19.277188591700813</v>
+      </c>
+      <c r="D7">
+        <v>20.312803843881326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="16">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>9.4562148875752605</v>
+      </c>
+      <c r="C8">
+        <v>6.0348985078458428</v>
+      </c>
+      <c r="D8">
+        <v>20.381854675176154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="16">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>9.0183146984345139</v>
+      </c>
+      <c r="C9">
+        <v>8.0454956342042703</v>
+      </c>
+      <c r="D9">
+        <v>20.536065835500235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="16">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>8.6884981440983253</v>
+      </c>
+      <c r="C10">
+        <v>5.9236812878479563</v>
+      </c>
+      <c r="D10">
+        <v>20.617710833164768</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="14">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>20.943017929610814</v>
+      </c>
+      <c r="C11">
+        <v>20.688402548287772</v>
+      </c>
+      <c r="D11">
+        <v>20.664220285314418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="14">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>19.533048917155764</v>
+      </c>
+      <c r="C12">
+        <v>19.736767719158067</v>
+      </c>
+      <c r="D12">
+        <v>20.715694533372513</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="14">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>8.7869221004854694</v>
+      </c>
+      <c r="C13">
+        <v>5.5326304774492208</v>
+      </c>
+      <c r="D13">
+        <v>20.736682473336955</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>11.619810669714028</v>
+      </c>
+      <c r="C14">
+        <v>5.0019996001599187</v>
+      </c>
+      <c r="D14">
+        <v>21.114450028357357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="14">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>6.4124878167525567</v>
+      </c>
+      <c r="C15">
+        <v>3.3346664001066149</v>
+      </c>
+      <c r="D15">
+        <v>22.314121089570165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="14">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>23.685860761222084</v>
+      </c>
+      <c r="C16">
+        <v>24.860008045050993</v>
+      </c>
+      <c r="D16">
+        <v>23.626679834458333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="14">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>7.3334848469196396</v>
+      </c>
+      <c r="C17">
+        <v>0.8831760866327848</v>
+      </c>
+      <c r="D17">
+        <v>23.735627229968035</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="14">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>8.1049367671808508</v>
+      </c>
+      <c r="C18">
+        <v>2.6627053911388709</v>
+      </c>
+      <c r="D18">
+        <v>25.021790503479167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="14">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>17.568722207377519</v>
+      </c>
+      <c r="C19">
+        <v>10.230347012687302</v>
+      </c>
+      <c r="D19">
+        <v>25.382277281599457</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="14">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>8.2498484834571375</v>
+      </c>
+      <c r="C20">
+        <v>3.3256578296631814</v>
+      </c>
+      <c r="D20">
+        <v>25.433442551097958</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="14">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>9.4037226671143408</v>
+      </c>
+      <c r="C21">
+        <v>3.8509739027939425</v>
+      </c>
+      <c r="D21">
+        <v>25.659890880516233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="14">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>8.7988635629835752</v>
+      </c>
+      <c r="C22">
+        <v>3.7973675092095065</v>
+      </c>
+      <c r="D22">
+        <v>25.718087020616444</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="14">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>10.439348638684312</v>
+      </c>
+      <c r="C23">
+        <v>4.4698993277253996</v>
+      </c>
+      <c r="D23">
+        <v>25.756164310704335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="14">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>15.113570061372</v>
+      </c>
+      <c r="C24">
+        <v>8.0882631015564783</v>
+      </c>
+      <c r="D24">
+        <v>25.931062454130185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="14">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>17.569575976670581</v>
+      </c>
+      <c r="C25">
+        <v>10.396634070698074</v>
+      </c>
+      <c r="D25">
+        <v>26.280981716823288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="14">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>20.885880398010517</v>
+      </c>
+      <c r="C26">
+        <v>13.609555466656506</v>
+      </c>
+      <c r="D26">
+        <v>26.889031220927244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="14">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>16.541463055002115</v>
+      </c>
+      <c r="C27">
+        <v>9.6757428655375062</v>
+      </c>
+      <c r="D27">
+        <v>26.915051551130269</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="14">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>16.968794889443387</v>
+      </c>
+      <c r="C28">
+        <v>10.046890066085126</v>
+      </c>
+      <c r="D28">
+        <v>26.935849717430486</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="14">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>9.3765665357848338</v>
+      </c>
+      <c r="C29">
+        <v>5.6497787567302158</v>
+      </c>
+      <c r="D29">
+        <v>27.068801229459719</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="14">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>19.748417658131498</v>
+      </c>
+      <c r="C30">
+        <v>12.569805089976535</v>
+      </c>
+      <c r="D30">
+        <v>27.092434368288131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="14">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>18.36681790621337</v>
+      </c>
+      <c r="C31">
+        <v>11.416654501210065</v>
+      </c>
+      <c r="D31">
+        <v>27.45432570652574</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="14">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>9.2076055519336872</v>
+      </c>
+      <c r="C32">
+        <v>6.2273589907761071</v>
+      </c>
+      <c r="D32">
+        <v>27.516903895605697</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="14">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>9.8127468121826134</v>
+      </c>
+      <c r="C33">
+        <v>6.7</v>
+      </c>
+      <c r="D33">
+        <v>27.818878482066811</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="14">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>10.288828893513589</v>
+      </c>
+      <c r="C34">
+        <v>6.9899928469205204</v>
+      </c>
+      <c r="D34">
+        <v>28.047459778026248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="14">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>11.110355529864918</v>
+      </c>
+      <c r="C35">
+        <v>7.8383671769061678</v>
+      </c>
+      <c r="D35">
+        <v>28.653795560099887</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="14">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>21.312437683193355</v>
+      </c>
+      <c r="C36">
+        <v>14.325501736413983</v>
+      </c>
+      <c r="D36">
+        <v>28.730123563952869</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="14">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>13.664918587390122</v>
+      </c>
+      <c r="C37">
+        <v>9.1831367190083828</v>
+      </c>
+      <c r="D37">
+        <v>29.167276184107426</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="14">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>23.726356652465629</v>
+      </c>
+      <c r="C38">
+        <v>16.611441839888553</v>
+      </c>
+      <c r="D38">
+        <v>29.334962075993893</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="14">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>12.089665007765932</v>
+      </c>
+      <c r="C39">
+        <v>9.0642153548997282</v>
+      </c>
+      <c r="D39">
+        <v>29.579722784366997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="14">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>15.314698821720262</v>
+      </c>
+      <c r="C40">
+        <v>10.795369377654477</v>
+      </c>
+      <c r="D40">
+        <v>30.247975138841941</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="14">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>13.572766851309279</v>
+      </c>
+      <c r="C41">
+        <v>10.450837287031121</v>
+      </c>
+      <c r="D41">
+        <v>30.578096736062562</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="14">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>25.140803487557836</v>
+      </c>
+      <c r="C42">
+        <v>18.494864151974731</v>
+      </c>
+      <c r="D42">
+        <v>32.318106380170235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="14">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>24.658872642519569</v>
+      </c>
+      <c r="C43">
+        <v>18.140011025354973</v>
+      </c>
+      <c r="D43">
+        <v>32.447804240040647</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="14">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>24.169815886762564</v>
+      </c>
+      <c r="C44">
+        <v>17.893574265640723</v>
+      </c>
+      <c r="D44">
+        <v>32.872176684850061</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="14">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>24.257370014080259</v>
+      </c>
+      <c r="C45">
+        <v>18.149931129345919</v>
+      </c>
+      <c r="D45">
+        <v>33.400898191515751</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="14">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>26.511506935668518</v>
+      </c>
+      <c r="C46">
+        <v>20.145967338402986</v>
+      </c>
+      <c r="D46">
+        <v>34.206139799749394</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="14">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>25.838343600161366</v>
+      </c>
+      <c r="C47">
+        <v>19.688067452139631</v>
+      </c>
+      <c r="D47">
+        <v>34.386334494970527</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:D47">
+    <sortCondition ref="D1"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>